--- a/Admin/Timesheets/3 - 1 Timesheets/Chris-Kardaras-Mar-1.xlsx
+++ b/Admin/Timesheets/3 - 1 Timesheets/Chris-Kardaras-Mar-1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckard\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckard\Desktop\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF851C6-2AEF-42D2-A976-D2F3628C6FBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF006272-769B-4500-9CA6-F25413363A59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -69,10 +69,7 @@
     <t>Chris Kardaras</t>
   </si>
   <si>
-    <t>LwM2M Board Setup</t>
-  </si>
-  <si>
-    <t>Contacting Ublox</t>
+    <t>LwM2M Board + Server Setup</t>
   </si>
 </sst>
 </file>
@@ -465,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:J999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -578,7 +575,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
       <c r="I6" s="11">
-        <f t="shared" ref="I6:I10" si="0">SUM(B6:H6)</f>
+        <f t="shared" ref="I6:I9" si="0">SUM(B6:H6)</f>
         <v>1.5</v>
       </c>
       <c r="J6" s="6"/>
@@ -643,60 +640,53 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="16"/>
+      <c r="A10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <f>SUM(B8:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
+        <f>SUM(C8:C9)</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="11">
+        <f>SUM(D8:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <f>SUM(E8:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <f>SUM(F8:F9)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <f>SUM(G8:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <f>SUM(H8:H9)</f>
+        <v>2</v>
+      </c>
       <c r="I10" s="11">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>SUM(I2:I9)</f>
+        <v>11.5</v>
       </c>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11">
-        <f t="shared" ref="B11:H11" si="1">SUM(B8:B10)</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D11" s="11">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="E11" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I11" s="11">
-        <f>SUM(I2:I10)</f>
-        <v>13</v>
-      </c>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -747,17 +737,8 @@
       <c r="I15" s="17"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="6"/>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
@@ -765,7 +746,7 @@
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
     </row>
     <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -777,9 +758,7 @@
     <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
     </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-    </row>
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1755,7 +1734,6 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
